--- a/作业/期末大作业/回合聚类结果.xlsx
+++ b/作业/期末大作业/回合聚类结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>distance_diff</t>
+          <t>ace_efficiency</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ace_efficiency</t>
+          <t>unf_err_to_ace_ratio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>unf_err_to_ace_ratio</t>
+          <t>is_key_point</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>is_key_point</t>
+          <t>rolling_rally_count</t>
         </is>
       </c>
     </row>
@@ -480,25 +480,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.280324737344794</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>108.4108015827818</v>
+        <v>112.194406490123</v>
       </c>
       <c r="D2" t="n">
-        <v>8.917778429026145</v>
+        <v>61.39575634517767</v>
       </c>
       <c r="E2" t="n">
-        <v>3.59607688634193</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3857868020304568</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9121298949379179</v>
+        <v>0.3857868020304568</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.02842639593908629</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9519519519519519</v>
+        <v>3.637234770704997</v>
       </c>
       <c r="C3" t="n">
-        <v>121.0281037850338</v>
+        <v>98.9974674880219</v>
       </c>
       <c r="D3" t="n">
-        <v>1.678590840840841</v>
+        <v>6.352569432444124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4250975975975976</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.524024024024024</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3.436173853524983</v>
       </c>
     </row>
     <row r="4">
@@ -532,25 +532,103 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.916445623342175</v>
+        <v>12.51063829787234</v>
       </c>
       <c r="C4" t="n">
-        <v>112.9858764459044</v>
+        <v>107.6117021276596</v>
       </c>
       <c r="D4" t="n">
-        <v>7.914637036271519</v>
+        <v>7.189673216986962</v>
       </c>
       <c r="E4" t="n">
-        <v>3.181002652519894</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.8617021276595744</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.051063829787234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9519519519519519</v>
+      </c>
+      <c r="C5" t="n">
+        <v>121.0281037850338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.678590840840841</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.524024024024024</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.616866866866867</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.563667820069204</v>
+      </c>
+      <c r="C6" t="n">
+        <v>120.2104906872015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.368797672997898</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.959048442906574</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.792207792207792</v>
+      </c>
+      <c r="C7" t="n">
+        <v>108.3544317538667</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.080540517781118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.037652499016136</v>
       </c>
     </row>
   </sheetData>
